--- a/Dossier Stage/Planning général du stage.xlsx
+++ b/Dossier Stage/Planning général du stage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Tache</t>
   </si>
@@ -70,88 +70,43 @@
     <t xml:space="preserve">Sprint 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyse exploratoire des données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etablissement du dictionnaire de données</t>
-  </si>
-  <si>
     <t xml:space="preserve">les données sont stockée dans un dictionaire de donnée</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle conceptuelle de données</t>
-  </si>
-  <si>
     <t xml:space="preserve">Définition des entité ainsi que leurs relation avec leur cardinalités</t>
   </si>
   <si>
-    <t xml:space="preserve"> Modèle logique de données</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modélisation de la structure de la base de donnée</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle relationel </t>
-  </si>
-  <si>
     <t xml:space="preserve">Formaliser la struture de stockage des données, formaliser la manipulation des données</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle physique</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retranscrire le modèle logique en langage SQL</t>
   </si>
   <si>
-    <t xml:space="preserve">Programme de nettoyage et mise en forme des données</t>
-  </si>
-  <si>
     <t xml:space="preserve">Traiter les valeurs manquantes, format date num, symbole non désiré, accent.</t>
   </si>
   <si>
-    <t xml:space="preserve">Création et mise en forme des dataframes pour l'insertion des données</t>
-  </si>
-  <si>
     <t xml:space="preserve">Créer des dataframes propres correspondant en tables de la base de données</t>
   </si>
   <si>
-    <t xml:space="preserve">Intégration dans la base de donnée</t>
-  </si>
-  <si>
     <t xml:space="preserve">intégration des données dans la base de données</t>
   </si>
   <si>
-    <t xml:space="preserve">Création du code python qui va traiter le template pour générer le dashboard </t>
-  </si>
-  <si>
     <t xml:space="preserve">Traiter le template pour générer le dashboard </t>
   </si>
   <si>
-    <t xml:space="preserve">Création du template jinja2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création du template format HTML et CSS </t>
   </si>
   <si>
-    <t xml:space="preserve">Création d'un template jinja2 pour le formulaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création d'un deuxième template avec un formulaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Création du code python permettant de traiter les données saisies par l'utilisateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Récupérer les données saisies par l'utilisateur et les traiter</t>
   </si>
   <si>
-    <t xml:space="preserve"> Test de l'application </t>
-  </si>
-  <si>
     <t xml:space="preserve">tester l'application pour déceler les potentiels bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correction de bugs</t>
   </si>
   <si>
     <t xml:space="preserve">l'application ne comporte plus de bug</t>
@@ -170,6 +125,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -281,7 +237,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -297,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -306,145 +262,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -480,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,19 +310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,23 +318,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,123 +338,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,7 +436,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -738,16 +479,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.14"/>
@@ -759,485 +504,685 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="16" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="23" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
-    </row>
-    <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="43"/>
-      <c r="F22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="43"/>
-      <c r="F23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="B24" s="23"/>
+      <c r="F24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="B25" s="23"/>
+      <c r="F25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="N26" s="44"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+    </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2210,6 +2155,8 @@
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="D4">
     <cfRule type="colorScale" priority="2">
